--- a/Statistics/Master/2019/Quarterly/Summer 2019.xlsx
+++ b/Statistics/Master/2019/Quarterly/Summer 2019.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="111111" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Week of January 12, 2015" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Week of January 19, 2015" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Week of January 26, 2015" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Week of February 2, 2015" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Week of February 9, 2015" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Week of February 16, 2015" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Week of February 23, 2015" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Week of March 2, 2015" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Week of March 9, 2015" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Week of March 16, 2015" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Week of March 23, 2015" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Week of March 30, 2015" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Week of June 24, 2019" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Week of July 1, 2019" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Week of July 15, 2019" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Week of July 22, 2019" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Week of July 29, 2019" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Week of July 8, 2019" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Week of August 12, 2019" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Week of August 19, 2019" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Week of August 26, 2019" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Week of August 5, 2019" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Week of September 2, 2019" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Week of September 9, 2019" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Week of December 22, 2014" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
@@ -260,7 +260,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -404,7 +404,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -548,7 +548,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -692,7 +692,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -836,7 +836,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -980,7 +980,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1124,7 +1124,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1268,7 +1268,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1412,7 +1412,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1556,7 +1556,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1700,7 +1700,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1844,7 +1844,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1988,7 +1988,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2132,7 +2132,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t/>
+                  <a:t>None</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>

--- a/Statistics/Master/2019/Quarterly/Summer 2019.xlsx
+++ b/Statistics/Master/2019/Quarterly/Summer 2019.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Week of August 26, 2019" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Week of September 2, 2019" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Week of September 9, 2019" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Week of September 16, 2019" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -330,6 +331,60 @@
           <val>
             <numRef>
               <f>'Week of September 9, 2019'!$B$10:$B$13</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Week of September 16, 2019'!$A$10:$A$13</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Week of September 16, 2019'!$B$10:$B$13</f>
             </numRef>
           </val>
         </ser>
@@ -887,6 +942,33 @@
 </wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -2002,6 +2084,45 @@
           <t>Students</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>179</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>153</v>
+      </c>
+      <c r="G3" t="n">
+        <v>145</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+      <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>37</v>
+      </c>
+      <c r="N3" t="n">
+        <v>766</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -2009,6 +2130,45 @@
           <t>Parents</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61</v>
+      </c>
+      <c r="G4" t="n">
+        <v>41</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>16</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="n">
+        <v>265</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -2016,12 +2176,90 @@
           <t>Other</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>197</v>
+      </c>
+      <c r="D6" t="n">
+        <v>221</v>
+      </c>
+      <c r="E6" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>219</v>
+      </c>
+      <c r="G6" t="n">
+        <v>189</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>24</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>71</v>
+      </c>
+      <c r="M6" t="n">
+        <v>53</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1077</v>
       </c>
     </row>
     <row r="9">
@@ -2354,43 +2592,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
@@ -2400,43 +2638,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
@@ -2449,19 +2687,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -2470,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -2492,43 +2730,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9">
@@ -2861,43 +3099,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
@@ -2907,43 +3145,550 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>8</v>
+      </c>
+      <c r="M5" t="n">
+        <v>21</v>
+      </c>
+      <c r="N5" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98</v>
+      </c>
+      <c r="D6" t="n">
+        <v>90</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>96</v>
+      </c>
+      <c r="G6" t="n">
+        <v>52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>44</v>
+      </c>
+      <c r="N6" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Bursar</t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>SUM(B6:D6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>SUM(E6:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="inlineStr">
+        <is>
+          <t>Registrar</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>SUM(H6:J6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>SUM(K6:M6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Walk-Ins</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Bursar</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>B6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>E6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Registrar</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>H6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B19">
+        <f>K6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Phones</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Bursar</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>Registrar</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>I6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>L6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>Bursar</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>G6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Registrar</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>J6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>M6</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Bursar</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Financial Aid</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Registrar</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Walk-Ins</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Phones</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Walk-Ins</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Phones</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Walk-Ins</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Phones</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Walk-Ins</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Phones</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Emails</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" t="n">
+        <v>112</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97</v>
+      </c>
+      <c r="E3" t="n">
+        <v>21</v>
+      </c>
+      <c r="F3" t="n">
+        <v>73</v>
+      </c>
+      <c r="G3" t="n">
+        <v>108</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>23</v>
+      </c>
+      <c r="M3" t="n">
+        <v>24</v>
+      </c>
+      <c r="N3" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>Parents</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
@@ -2956,22 +3701,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2983,13 +3728,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -2999,43 +3744,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9">
@@ -5902,6 +6647,45 @@
           <t>Students</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>180</v>
+      </c>
+      <c r="C3" t="n">
+        <v>187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>125</v>
+      </c>
+      <c r="E3" t="n">
+        <v>19</v>
+      </c>
+      <c r="F3" t="n">
+        <v>127</v>
+      </c>
+      <c r="G3" t="n">
+        <v>143</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>42</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>43</v>
+      </c>
+      <c r="M3" t="n">
+        <v>39</v>
+      </c>
+      <c r="N3" t="n">
+        <v>935</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -5909,6 +6693,45 @@
           <t>Parents</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -5916,12 +6739,90 @@
           <t>Other</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>194</v>
+      </c>
+      <c r="C6" t="n">
+        <v>286</v>
+      </c>
+      <c r="D6" t="n">
+        <v>175</v>
+      </c>
+      <c r="E6" t="n">
+        <v>28</v>
+      </c>
+      <c r="F6" t="n">
+        <v>214</v>
+      </c>
+      <c r="G6" t="n">
+        <v>182</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55</v>
+      </c>
+      <c r="J6" t="n">
+        <v>21</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>59</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1322</v>
       </c>
     </row>
     <row r="9">
@@ -6253,6 +7154,45 @@
           <t>Students</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>286</v>
+      </c>
+      <c r="C3" t="n">
+        <v>217</v>
+      </c>
+      <c r="D3" t="n">
+        <v>138</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>159</v>
+      </c>
+      <c r="G3" t="n">
+        <v>153</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>38</v>
+      </c>
+      <c r="M3" t="n">
+        <v>49</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1103</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -6260,6 +7200,45 @@
           <t>Parents</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>103</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>40</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -6267,12 +7246,90 @@
           <t>Other</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>295</v>
+      </c>
+      <c r="C6" t="n">
+        <v>339</v>
+      </c>
+      <c r="D6" t="n">
+        <v>172</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>268</v>
+      </c>
+      <c r="G6" t="n">
+        <v>201</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15</v>
+      </c>
+      <c r="L6" t="n">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>78</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1530</v>
       </c>
     </row>
     <row r="9">
@@ -6604,6 +7661,45 @@
           <t>Students</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>173</v>
+      </c>
+      <c r="C3" t="n">
+        <v>180</v>
+      </c>
+      <c r="D3" t="n">
+        <v>181</v>
+      </c>
+      <c r="E3" t="n">
+        <v>31</v>
+      </c>
+      <c r="F3" t="n">
+        <v>210</v>
+      </c>
+      <c r="G3" t="n">
+        <v>199</v>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>11</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" t="n">
+        <v>64</v>
+      </c>
+      <c r="M3" t="n">
+        <v>30</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1109</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -6611,6 +7707,45 @@
           <t>Parents</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>30</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
+        <v>321</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -6618,12 +7753,90 @@
           <t>Other</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>7</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" t="n">
+        <v>307</v>
+      </c>
+      <c r="D6" t="n">
+        <v>223</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>295</v>
+      </c>
+      <c r="G6" t="n">
+        <v>225</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>101</v>
+      </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1471</v>
       </c>
     </row>
     <row r="9">
